--- a/src/data/housing_market_Q1/final/mw2303-march-city-toronto.xlsx
+++ b/src/data/housing_market_Q1/final/mw2303-march-city-toronto.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="all_home_type" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="detached" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="semi_detached" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="townhouse" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="condo_townhouse" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="condo_apartment" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="link" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="coop_apartment" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="detached_condo" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="co_ownership_apartment" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="index_and_benchmark_price" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_home_type" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="detached" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="semi_detached" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="townhouse" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="condo_townhouse" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="condo_apartment" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="link" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="coop_apartment" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="detached_condo" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="co_ownership_apartment" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="index_and_benchmark_price" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -504,20 +504,14 @@
           <t>14,750</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$16,074,825,214</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,089,819</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$940,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>16074825214</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1089819</v>
+      </c>
+      <c r="F2" t="n">
+        <v>940000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -550,20 +544,14 @@
           <t>5,366</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$5,616,357,464</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,046,656</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$838,888</t>
-        </is>
+      <c r="D3" t="n">
+        <v>5616357464</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1046656</v>
+      </c>
+      <c r="F3" t="n">
+        <v>838888</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -596,20 +584,14 @@
           <t>1,435</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$1,403,435,061</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$978,004</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$862,500</t>
-        </is>
+      <c r="D4" t="n">
+        <v>1403435061</v>
+      </c>
+      <c r="E4" t="n">
+        <v>978004</v>
+      </c>
+      <c r="F4" t="n">
+        <v>862500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -642,20 +624,14 @@
           <t>91</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$104,280,426</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,145,939</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>104280426</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1145939</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1000000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -688,20 +664,14 @@
           <t>127</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$153,443,714</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,208,218</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,120,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>153443714</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1208218</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1120000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -734,20 +704,14 @@
           <t>101</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$97,517,604</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$965,521</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$950,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>97517604</v>
+      </c>
+      <c r="E7" t="n">
+        <v>965521</v>
+      </c>
+      <c r="F7" t="n">
+        <v>950000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -780,20 +744,14 @@
           <t>154</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$132,993,901</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$863,597</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$840,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>132993901</v>
+      </c>
+      <c r="E8" t="n">
+        <v>863597</v>
+      </c>
+      <c r="F8" t="n">
+        <v>840000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -826,20 +784,14 @@
           <t>205</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$163,046,513</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$795,349</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$845,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>163046513</v>
+      </c>
+      <c r="E9" t="n">
+        <v>795349</v>
+      </c>
+      <c r="F9" t="n">
+        <v>845000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -872,20 +824,14 @@
           <t>261</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$235,100,713</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$900,769</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$800,000</t>
-        </is>
+      <c r="D10" t="n">
+        <v>235100713</v>
+      </c>
+      <c r="E10" t="n">
+        <v>900769</v>
+      </c>
+      <c r="F10" t="n">
+        <v>800000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -918,20 +864,14 @@
           <t>47</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$74,801,999</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$1,591,532</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$1,322,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>74801999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1591532</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1322000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -964,20 +904,14 @@
           <t>273</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$291,524,923</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$1,067,857</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$725,000</t>
-        </is>
+      <c r="D12" t="n">
+        <v>291524923</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1067857</v>
+      </c>
+      <c r="F12" t="n">
+        <v>725000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1010,20 +944,14 @@
           <t>69</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$68,162,638</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$987,864</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$850,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>68162638</v>
+      </c>
+      <c r="E13" t="n">
+        <v>987864</v>
+      </c>
+      <c r="F13" t="n">
+        <v>850000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1056,20 +984,14 @@
           <t>107</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$82,562,630</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$771,613</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$770,000</t>
-        </is>
+      <c r="D14" t="n">
+        <v>82562630</v>
+      </c>
+      <c r="E14" t="n">
+        <v>771613</v>
+      </c>
+      <c r="F14" t="n">
+        <v>770000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1102,20 +1024,14 @@
           <t>2,681</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$2,969,084,724</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$1,107,454</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
+      <c r="D15" t="n">
+        <v>2969084724</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1107454</v>
+      </c>
+      <c r="F15" t="n">
+        <v>780000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1148,20 +1064,14 @@
           <t>800</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$691,431,911</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$864,290</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$716,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>691431911</v>
+      </c>
+      <c r="E16" t="n">
+        <v>864290</v>
+      </c>
+      <c r="F16" t="n">
+        <v>716000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1194,20 +1104,14 @@
           <t>141</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$228,135,507</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,617,982</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,235,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>228135507</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1617982</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1235000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1240,20 +1144,14 @@
           <t>92</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$121,285,328</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$1,318,319</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$994,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>121285328</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1318319</v>
+      </c>
+      <c r="F18" t="n">
+        <v>994000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1286,20 +1184,14 @@
           <t>126</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$264,182,162</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$2,096,684</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$1,866,088</t>
-        </is>
+      <c r="D19" t="n">
+        <v>264182162</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2096684</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1866088</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1332,20 +1224,14 @@
           <t>55</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$59,103,311</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$1,074,606</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$729,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>59103311</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1074606</v>
+      </c>
+      <c r="F20" t="n">
+        <v>729000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1378,20 +1264,14 @@
           <t>187</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$210,281,026</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$1,124,497</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$820,000</t>
-        </is>
+      <c r="D21" t="n">
+        <v>210281026</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1124497</v>
+      </c>
+      <c r="F21" t="n">
+        <v>820000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1424,20 +1304,14 @@
           <t>380</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$304,226,033</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$800,595</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$690,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>304226033</v>
+      </c>
+      <c r="E22" t="n">
+        <v>800595</v>
+      </c>
+      <c r="F22" t="n">
+        <v>690000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1470,20 +1344,14 @@
           <t>41</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$82,294,300</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$2,007,178</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$1,350,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>82294300</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2007178</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1350000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1516,20 +1384,14 @@
           <t>149</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$150,255,295</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$1,008,425</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$755,000</t>
-        </is>
+      <c r="D24" t="n">
+        <v>150255295</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1008425</v>
+      </c>
+      <c r="F24" t="n">
+        <v>755000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1562,20 +1424,14 @@
           <t>70</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$94,243,400</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$1,346,334</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$803,500</t>
-        </is>
+      <c r="D25" t="n">
+        <v>94243400</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1346334</v>
+      </c>
+      <c r="F25" t="n">
+        <v>803500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1608,20 +1464,14 @@
           <t>47</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$136,669,500</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$2,907,862</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$1,780,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>136669500</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2907862</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1780000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1654,20 +1504,14 @@
           <t>121</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$136,173,169</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$1,125,398</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$820,000</t>
-        </is>
+      <c r="D27" t="n">
+        <v>136173169</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1125398</v>
+      </c>
+      <c r="F27" t="n">
+        <v>820000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1700,20 +1544,14 @@
           <t>217</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$232,481,855</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$1,071,345</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$775,000</t>
-        </is>
+      <c r="D28" t="n">
+        <v>232481855</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1071345</v>
+      </c>
+      <c r="F28" t="n">
+        <v>775000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1746,20 +1584,14 @@
           <t>255</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$258,321,927</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$1,013,027</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$757,000</t>
-        </is>
+      <c r="D29" t="n">
+        <v>258321927</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1013027</v>
+      </c>
+      <c r="F29" t="n">
+        <v>757000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1792,20 +1624,14 @@
           <t>1,250</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$1,243,837,679</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$995,070</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$950,000</t>
-        </is>
+      <c r="D30" t="n">
+        <v>1243837679</v>
+      </c>
+      <c r="E30" t="n">
+        <v>995070</v>
+      </c>
+      <c r="F30" t="n">
+        <v>950000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1838,20 +1664,14 @@
           <t>120</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$140,351,985</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$1,169,600</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$1,089,250</t>
-        </is>
+      <c r="D31" t="n">
+        <v>140351985</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1169600</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1089250</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1884,20 +1704,14 @@
           <t>100</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$130,734,020</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$1,307,340</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$1,240,000</t>
-        </is>
+      <c r="D32" t="n">
+        <v>130734020</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1307340</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1240000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1930,20 +1744,14 @@
           <t>159</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$188,867,892</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$1,187,848</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$1,120,000</t>
-        </is>
+      <c r="D33" t="n">
+        <v>188867892</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1187848</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1120000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1976,20 +1784,14 @@
           <t>138</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>$119,284,385</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$864,380</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$867,500</t>
-        </is>
+      <c r="D34" t="n">
+        <v>119284385</v>
+      </c>
+      <c r="E34" t="n">
+        <v>864380</v>
+      </c>
+      <c r="F34" t="n">
+        <v>867500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2022,20 +1824,14 @@
           <t>127</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>$112,996,764</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>$889,738</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>$749,000</t>
-        </is>
+      <c r="D35" t="n">
+        <v>112996764</v>
+      </c>
+      <c r="E35" t="n">
+        <v>889738</v>
+      </c>
+      <c r="F35" t="n">
+        <v>749000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2068,20 +1864,14 @@
           <t>60</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>$66,858,679</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>$1,114,311</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
+      <c r="D36" t="n">
+        <v>66858679</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1114311</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1000000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2114,20 +1904,14 @@
           <t>124</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>$105,101,851</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>$847,596</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>$666,500</t>
-        </is>
+      <c r="D37" t="n">
+        <v>105101851</v>
+      </c>
+      <c r="E37" t="n">
+        <v>847596</v>
+      </c>
+      <c r="F37" t="n">
+        <v>666500</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2160,20 +1944,14 @@
           <t>92</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>$89,601,110</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>$973,925</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>$862,500</t>
-        </is>
+      <c r="D38" t="n">
+        <v>89601110</v>
+      </c>
+      <c r="E38" t="n">
+        <v>973925</v>
+      </c>
+      <c r="F38" t="n">
+        <v>862500</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2206,20 +1984,14 @@
           <t>150</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>$125,105,057</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>$834,034</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>$733,500</t>
-        </is>
+      <c r="D39" t="n">
+        <v>125105057</v>
+      </c>
+      <c r="E39" t="n">
+        <v>834034</v>
+      </c>
+      <c r="F39" t="n">
+        <v>733500</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2252,20 +2024,14 @@
           <t>79</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>$81,544,800</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>$1,032,213</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>$1,035,000</t>
-        </is>
+      <c r="D40" t="n">
+        <v>81544800</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1032213</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1035000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2298,20 +2064,14 @@
           <t>101</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>$83,391,136</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>$825,655</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>$800,000</t>
-        </is>
+      <c r="D41" t="n">
+        <v>83391136</v>
+      </c>
+      <c r="E41" t="n">
+        <v>825655</v>
+      </c>
+      <c r="F41" t="n">
+        <v>800000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2362,17 +2122,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2408,20 +2168,14 @@
       <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$822,000</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$411,000</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$411,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>822000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>411000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>411000</v>
       </c>
       <c r="G2" t="n">
         <v>8</v>
@@ -2452,20 +2206,14 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$822,000</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$411,000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$411,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>822000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>411000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>411000</v>
       </c>
       <c r="G3" t="n">
         <v>8</v>
@@ -2496,20 +2244,14 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$822,000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$411,000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$411,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>822000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>411000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>411000</v>
       </c>
       <c r="G4" t="n">
         <v>7</v>
@@ -2540,20 +2282,14 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$312,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$312,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$312,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>312000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>312000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>312000</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -2584,20 +2320,14 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$510,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$510,000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$510,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>510000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>510000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>510000</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -7784,17 +7514,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -7832,20 +7562,14 @@
           <t>3,000</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$4,405,951,530</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,468,651</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$1,300,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>4405951530</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1468651</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1300000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -7880,20 +7604,14 @@
           <t>666</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$1,137,776,325</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,708,373</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$1,375,500</t>
-        </is>
+      <c r="D3" t="n">
+        <v>1137776325</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1708373</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1375500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -7928,20 +7646,14 @@
           <t>223</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$311,058,140</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$1,394,880</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$1,250,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>311058140</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1394880</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1250000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -7976,20 +7688,14 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$14,285,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$2,040,714</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$2,175,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>14285000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2040714</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2175000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -8024,20 +7730,14 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$26,151,380</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,634,461</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,390,500</t>
-        </is>
+      <c r="D6" t="n">
+        <v>26151380</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1634461</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1390500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -8072,20 +7772,14 @@
           <t>19</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$22,338,016</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$1,175,685</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$1,100,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>22338016</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1175685</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1100000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -8120,20 +7814,14 @@
           <t>27</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$31,203,618</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$1,155,690</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$1,100,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>31203618</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1155690</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1100000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -8168,20 +7856,14 @@
           <t>27</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$30,173,413</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$1,117,534</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$1,120,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>30173413</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1117534</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1120000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -8216,20 +7898,14 @@
           <t>27</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$36,107,434</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$1,337,312</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$1,215,000</t>
-        </is>
+      <c r="D10" t="n">
+        <v>36107434</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1337312</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1215000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -8264,20 +7940,14 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$30,858,499</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$1,928,656</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$1,536,750</t>
-        </is>
+      <c r="D11" t="n">
+        <v>30858499</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1928656</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1536750</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -8312,20 +7982,14 @@
           <t>42</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$67,529,600</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$1,607,848</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$1,426,500</t>
-        </is>
+      <c r="D12" t="n">
+        <v>67529600</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1607848</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1426500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -8360,20 +8024,14 @@
           <t>18</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$27,542,000</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$1,530,111</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$1,274,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>27542000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1530111</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1274000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -8408,20 +8066,14 @@
           <t>24</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$24,869,180</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$1,036,216</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$987,500</t>
-        </is>
+      <c r="D14" t="n">
+        <v>24869180</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1036216</v>
+      </c>
+      <c r="F14" t="n">
+        <v>987500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -8456,20 +8108,14 @@
           <t>202</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$507,069,294</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$2,510,244</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$2,100,000</t>
-        </is>
+      <c r="D15" t="n">
+        <v>507069294</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2510244</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2100000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -8504,20 +8150,14 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$3,627,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$1,813,500</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$1,813,500</t>
-        </is>
+      <c r="D16" t="n">
+        <v>3627000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1813500</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1813500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -8552,20 +8192,14 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$20,126,000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$2,515,750</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$2,395,500</t>
-        </is>
+      <c r="D17" t="n">
+        <v>20126000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2515750</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2395500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -8600,20 +8234,14 @@
           <t>17</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$29,354,500</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$1,726,735</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$1,750,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>29354500</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1726735</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1750000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -8648,20 +8276,14 @@
           <t>43</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$116,080,220</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$2,699,540</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$2,425,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>116080220</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2699540</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2425000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -8696,20 +8318,14 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$20,109,018</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$2,010,902</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$1,600,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>20109018</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2010902</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1600000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -8744,20 +8360,14 @@
           <t>23</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$49,715,400</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$2,161,539</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$1,830,000</t>
-        </is>
+      <c r="D21" t="n">
+        <v>49715400</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2161539</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1830000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -8792,20 +8402,14 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$5,800,000</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$2,900,000</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$2,900,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>5800000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2900000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -8840,20 +8444,14 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$16,225,000</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$3,245,000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$3,605,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>16225000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3245000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3605000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -8888,20 +8486,14 @@
           <t>13</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$26,924,000</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$2,071,077</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$1,925,000</t>
-        </is>
+      <c r="D24" t="n">
+        <v>26924000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2071077</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1925000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -8936,20 +8528,14 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$17,824,100</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$2,546,300</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$2,195,000</t>
-        </is>
+      <c r="D25" t="n">
+        <v>17824100</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2546300</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2195000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -8984,20 +8570,14 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$67,096,000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$5,591,333</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$4,946,500</t>
-        </is>
+      <c r="D26" t="n">
+        <v>67096000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5591333</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4946500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -9032,20 +8612,14 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$25,795,550</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$2,149,629</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$1,774,000</t>
-        </is>
+      <c r="D27" t="n">
+        <v>25795550</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2149629</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1774000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -9080,20 +8654,14 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$51,868,506</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$2,593,425</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$2,350,009</t>
-        </is>
+      <c r="D28" t="n">
+        <v>51868506</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2593425</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2350009</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -9128,20 +8696,14 @@
           <t>28</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$56,524,000</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$2,018,714</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$1,630,600</t>
-        </is>
+      <c r="D29" t="n">
+        <v>56524000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2018714</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1630600</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -9176,20 +8738,14 @@
           <t>241</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$319,648,891</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$1,326,344</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$1,200,800</t>
-        </is>
+      <c r="D30" t="n">
+        <v>319648891</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1326344</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1200800</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -9224,20 +8780,14 @@
           <t>13</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$21,557,553</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$1,658,273</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$1,617,000</t>
-        </is>
+      <c r="D31" t="n">
+        <v>21557553</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1658273</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1617000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -9272,20 +8822,14 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$26,110,499</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$1,865,036</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$1,678,000</t>
-        </is>
+      <c r="D32" t="n">
+        <v>26110499</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1865036</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1678000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -9320,20 +8864,14 @@
           <t>42</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$57,565,361</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$1,370,604</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$1,205,000</t>
-        </is>
+      <c r="D33" t="n">
+        <v>57565361</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1370604</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1205000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -9368,20 +8906,14 @@
           <t>26</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>$30,345,100</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$1,167,119</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$1,074,000</t>
-        </is>
+      <c r="D34" t="n">
+        <v>30345100</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1167119</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1074000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -9416,20 +8948,14 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>$22,008,000</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>$1,375,500</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>$1,377,500</t>
-        </is>
+      <c r="D35" t="n">
+        <v>22008000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1375500</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1377500</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -9464,20 +8990,14 @@
           <t>25</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>$27,311,387</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>$1,092,455</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>$1,075,000</t>
-        </is>
+      <c r="D36" t="n">
+        <v>27311387</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1092455</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1075000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -9512,20 +9032,14 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>$27,763,388</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>$1,261,972</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>$1,305,000</t>
-        </is>
+      <c r="D37" t="n">
+        <v>27763388</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1261972</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1305000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -9560,20 +9074,14 @@
           <t>17</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>$27,474,410</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>$1,616,142</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>$1,450,000</t>
-        </is>
+      <c r="D38" t="n">
+        <v>27474410</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1616142</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1450000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -9608,20 +9116,14 @@
           <t>31</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>$34,937,193</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>$1,127,006</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>$1,135,000</t>
-        </is>
+      <c r="D39" t="n">
+        <v>34937193</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1127006</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1135000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -9656,20 +9158,14 @@
           <t>23</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>$29,762,000</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>$1,294,000</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>$1,236,000</t>
-        </is>
+      <c r="D40" t="n">
+        <v>29762000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1294000</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1236000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -9704,20 +9200,14 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>$14,814,000</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>$1,234,500</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>$1,212,500</t>
-        </is>
+      <c r="D41" t="n">
+        <v>14814000</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1234500</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1212500</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -9770,17 +9260,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -9816,20 +9306,14 @@
       <c r="C2" t="n">
         <v>556</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$604,885,564</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,087,924</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$1,040,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>604885564</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1087924</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1040000</v>
       </c>
       <c r="G2" t="n">
         <v>772</v>
@@ -9860,20 +9344,14 @@
       <c r="C3" t="n">
         <v>202</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$255,050,976</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,262,629</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$1,166,111</t>
-        </is>
+      <c r="D3" t="n">
+        <v>255050976</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1262629</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1166111</v>
       </c>
       <c r="G3" t="n">
         <v>302</v>
@@ -9904,20 +9382,14 @@
       <c r="C4" t="n">
         <v>77</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$86,189,566</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$1,119,345</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$1,040,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>86189566</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1119345</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1040000</v>
       </c>
       <c r="G4" t="n">
         <v>116</v>
@@ -9948,20 +9420,14 @@
       <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$13,457,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,495,222</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,350,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>13457000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1495222</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1350000</v>
       </c>
       <c r="G5" t="n">
         <v>13</v>
@@ -9992,20 +9458,14 @@
       <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$18,688,866</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,245,924</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,231,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>18688866</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1245924</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1231000</v>
       </c>
       <c r="G6" t="n">
         <v>19</v>
@@ -10036,20 +9496,14 @@
       <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$16,919,800</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$1,127,987</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$1,115,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>16919800</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1127987</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1115000</v>
       </c>
       <c r="G7" t="n">
         <v>20</v>
@@ -10080,20 +9534,14 @@
       <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$1,840,000</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$920,000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$920,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>1840000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>920000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>920000</v>
       </c>
       <c r="G8" t="n">
         <v>9</v>
@@ -10124,20 +9572,14 @@
       <c r="C9" t="n">
         <v>32</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$30,800,900</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$962,528</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$950,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>30800900</v>
+      </c>
+      <c r="E9" t="n">
+        <v>962528</v>
+      </c>
+      <c r="F9" t="n">
+        <v>950000</v>
       </c>
       <c r="G9" t="n">
         <v>46</v>
@@ -10168,20 +9610,14 @@
       <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$2,258,000</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$1,129,000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$1,129,000</t>
-        </is>
+      <c r="D10" t="n">
+        <v>2258000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1129000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1129000</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -10212,20 +9648,14 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$2,225,000</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$1,112,500</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$1,112,500</t>
-        </is>
+      <c r="D11" t="n">
+        <v>2225000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1112500</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1112500</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -10256,20 +9686,14 @@
       <c r="C12" t="n">
         <v>53</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$82,208,593</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$1,551,106</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$1,450,000</t>
-        </is>
+      <c r="D12" t="n">
+        <v>82208593</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1551106</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1450000</v>
       </c>
       <c r="G12" t="n">
         <v>93</v>
@@ -10300,20 +9724,14 @@
       <c r="C13" t="n">
         <v>11</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$19,247,000</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$1,749,727</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$1,510,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>19247000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1749727</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1510000</v>
       </c>
       <c r="G13" t="n">
         <v>36</v>
@@ -10344,20 +9762,14 @@
       <c r="C14" t="n">
         <v>8</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$12,548,071</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$1,568,509</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$1,471,500</t>
-        </is>
+      <c r="D14" t="n">
+        <v>12548071</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1568509</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1471500</v>
       </c>
       <c r="G14" t="n">
         <v>16</v>
@@ -10388,20 +9800,14 @@
       <c r="C15" t="n">
         <v>9</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$12,912,222</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$1,434,691</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$1,360,000</t>
-        </is>
+      <c r="D15" t="n">
+        <v>12912222</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1434691</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1360000</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -10432,20 +9838,14 @@
       <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$7,429,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$1,857,250</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$1,695,500</t>
-        </is>
+      <c r="D16" t="n">
+        <v>7429000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1857250</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1695500</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -10476,20 +9876,14 @@
       <c r="C17" t="n">
         <v>2</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$2,147,000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,073,500</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,073,500</t>
-        </is>
+      <c r="D17" t="n">
+        <v>2147000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1073500</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1073500</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -10520,20 +9914,14 @@
       <c r="C18" t="n">
         <v>3</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$5,310,000</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$1,770,000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$1,810,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>5310000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1770000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1810000</v>
       </c>
       <c r="G18" t="n">
         <v>7</v>
@@ -10564,20 +9952,14 @@
       <c r="C19" t="n">
         <v>5</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$9,226,000</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$1,845,200</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$1,710,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>9226000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1845200</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1710000</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -10608,20 +9990,14 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$1,525,000</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$1,525,000</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$1,525,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>1525000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1525000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1525000</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -10652,20 +10028,14 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$1,391,000</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$1,391,000</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$1,391,000</t>
-        </is>
+      <c r="D21" t="n">
+        <v>1391000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1391000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1391000</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -10696,20 +10066,14 @@
       <c r="C22" t="n">
         <v>4</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$4,562,000</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$1,140,500</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$1,104,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>4562000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1140500</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1104000</v>
       </c>
       <c r="G22" t="n">
         <v>9</v>
@@ -10740,20 +10104,14 @@
       <c r="C23" t="n">
         <v>5</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$5,911,300</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$1,182,260</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$1,159,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>5911300</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1182260</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1159000</v>
       </c>
       <c r="G23" t="n">
         <v>5</v>
@@ -10784,20 +10142,14 @@
       <c r="C24" t="n">
         <v>72</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$86,652,817</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$1,203,511</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$1,150,000</t>
-        </is>
+      <c r="D24" t="n">
+        <v>86652817</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1203511</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1150000</v>
       </c>
       <c r="G24" t="n">
         <v>93</v>
@@ -10828,20 +10180,14 @@
       <c r="C25" t="n">
         <v>18</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$23,712,500</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$1,317,361</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$1,274,500</t>
-        </is>
+      <c r="D25" t="n">
+        <v>23712500</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1317361</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1274500</v>
       </c>
       <c r="G25" t="n">
         <v>25</v>
@@ -10872,20 +10218,14 @@
       <c r="C26" t="n">
         <v>17</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$22,527,042</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$1,325,120</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$1,280,400</t>
-        </is>
+      <c r="D26" t="n">
+        <v>22527042</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1325120</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1280400</v>
       </c>
       <c r="G26" t="n">
         <v>23</v>
@@ -10916,20 +10256,14 @@
       <c r="C27" t="n">
         <v>19</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$21,961,587</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$1,155,873</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$1,121,600</t>
-        </is>
+      <c r="D27" t="n">
+        <v>21961587</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1155873</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1121600</v>
       </c>
       <c r="G27" t="n">
         <v>17</v>
@@ -10960,20 +10294,14 @@
       <c r="C28" t="n">
         <v>4</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$3,507,000</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$876,750</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$891,000</t>
-        </is>
+      <c r="D28" t="n">
+        <v>3507000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>876750</v>
+      </c>
+      <c r="F28" t="n">
+        <v>891000</v>
       </c>
       <c r="G28" t="n">
         <v>7</v>
@@ -11004,20 +10332,14 @@
       <c r="C29" t="n">
         <v>3</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$3,318,800</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$1,106,267</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$1,100,000</t>
-        </is>
+      <c r="D29" t="n">
+        <v>3318800</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1106267</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1100000</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -11048,20 +10370,14 @@
       <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$910,000</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$910,000</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$910,000</t>
-        </is>
+      <c r="D30" t="n">
+        <v>910000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>910000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>910000</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -11092,20 +10408,14 @@
       <c r="C31" t="n">
         <v>4</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$4,641,888</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$1,160,472</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$1,154,000</t>
-        </is>
+      <c r="D31" t="n">
+        <v>4641888</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1160472</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1154000</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
@@ -11136,20 +10446,14 @@
       <c r="C32" t="n">
         <v>1</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$905,000</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$905,000</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$905,000</t>
-        </is>
+      <c r="D32" t="n">
+        <v>905000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>905000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>905000</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -11180,20 +10484,14 @@
       <c r="C33" t="n">
         <v>2</v>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$2,105,000</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$1,052,500</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$1,052,500</t>
-        </is>
+      <c r="D33" t="n">
+        <v>2105000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1052500</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1052500</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
@@ -11224,20 +10522,14 @@
       <c r="C34" t="n">
         <v>3</v>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>$3,064,000</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$1,021,333</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$995,000</t>
-        </is>
+      <c r="D34" t="n">
+        <v>3064000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1021333</v>
+      </c>
+      <c r="F34" t="n">
+        <v>995000</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -11288,17 +10580,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -11334,20 +10626,14 @@
       <c r="C2" t="n">
         <v>640</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$663,405,630</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,036,571</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$985,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>663405630</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1036571</v>
+      </c>
+      <c r="F2" t="n">
+        <v>985000</v>
       </c>
       <c r="G2" t="n">
         <v>916</v>
@@ -11378,20 +10664,14 @@
       <c r="C3" t="n">
         <v>76</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$94,343,700</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,241,364</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$1,137,500</t>
-        </is>
+      <c r="D3" t="n">
+        <v>94343700</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1241364</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1137500</v>
       </c>
       <c r="G3" t="n">
         <v>111</v>
@@ -11422,20 +10702,14 @@
       <c r="C4" t="n">
         <v>21</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$25,791,500</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$1,228,167</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$1,220,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>25791500</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1228167</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1220000</v>
       </c>
       <c r="G4" t="n">
         <v>30</v>
@@ -11466,20 +10740,14 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$1,381,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,381,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,381,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>1381000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1381000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1381000</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -11510,20 +10778,14 @@
       <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$7,869,500</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,311,583</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,260,500</t>
-        </is>
+      <c r="D6" t="n">
+        <v>7869500</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1311583</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1260500</v>
       </c>
       <c r="G6" t="n">
         <v>6</v>
@@ -11554,20 +10816,14 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$640,000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$640,000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$640,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>640000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>640000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>640000</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
@@ -11598,20 +10854,14 @@
       <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$7,263,000</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$1,210,500</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$1,210,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>7263000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1210500</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1210000</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
@@ -11642,20 +10892,14 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$3,919,000</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$1,306,333</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$1,325,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>3919000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1306333</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1325000</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -11686,20 +10930,14 @@
       <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$2,326,500</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$1,163,250</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$1,163,250</t>
-        </is>
+      <c r="D10" t="n">
+        <v>2326500</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1163250</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1163250</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -11730,20 +10968,14 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$1,252,500</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$1,252,500</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$1,252,500</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1252500</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1252500</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1252500</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -11774,20 +11006,14 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$1,140,000</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$1,140,000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$1,140,000</t>
-        </is>
+      <c r="D12" t="n">
+        <v>1140000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1140000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1140000</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -11818,20 +11044,14 @@
       <c r="C13" t="n">
         <v>26</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$38,036,200</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$1,462,931</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$1,429,850</t>
-        </is>
+      <c r="D13" t="n">
+        <v>38036200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1462931</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1429850</v>
       </c>
       <c r="G13" t="n">
         <v>44</v>
@@ -11862,20 +11082,14 @@
       <c r="C14" t="n">
         <v>13</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$17,608,700</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$1,354,515</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$1,434,700</t>
-        </is>
+      <c r="D14" t="n">
+        <v>17608700</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1354515</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1434700</v>
       </c>
       <c r="G14" t="n">
         <v>16</v>
@@ -11906,20 +11120,14 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$2,060,000</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$2,060,000</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$2,060,000</t>
-        </is>
+      <c r="D15" t="n">
+        <v>2060000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2060000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2060000</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -11950,20 +11158,14 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$1,090,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$1,090,000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$1,090,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1090000</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -11994,20 +11196,14 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$1,341,000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,341,000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,341,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>1341000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1341000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1341000</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -12038,20 +11234,14 @@
       <c r="C18" t="n">
         <v>6</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$10,056,500</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$1,676,083</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$1,332,500</t>
-        </is>
+      <c r="D18" t="n">
+        <v>10056500</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1676083</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1332500</v>
       </c>
       <c r="G18" t="n">
         <v>11</v>
@@ -12082,20 +11272,14 @@
       <c r="C19" t="n">
         <v>2</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$3,132,000</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$1,566,000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$1,566,000</t>
-        </is>
+      <c r="D19" t="n">
+        <v>3132000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1566000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1566000</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -12126,20 +11310,14 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$1,260,000</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$1,260,000</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$1,260,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1260000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1260000</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -12170,20 +11348,14 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$1,488,000</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$1,488,000</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$1,488,000</t>
-        </is>
+      <c r="D21" t="n">
+        <v>1488000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1488000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1488000</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
@@ -12214,20 +11386,14 @@
       <c r="C22" t="n">
         <v>29</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$30,516,000</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$1,052,276</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$1,020,000</t>
-        </is>
+      <c r="D22" t="n">
+        <v>30516000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1052276</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1020000</v>
       </c>
       <c r="G22" t="n">
         <v>37</v>
@@ -12258,20 +11424,14 @@
       <c r="C23" t="n">
         <v>5</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$6,043,600</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$1,208,720</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$1,260,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>6043600</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1208720</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1260000</v>
       </c>
       <c r="G23" t="n">
         <v>9</v>
@@ -12302,20 +11462,14 @@
       <c r="C24" t="n">
         <v>3</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$3,446,000</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$1,148,667</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$1,136,000</t>
-        </is>
+      <c r="D24" t="n">
+        <v>3446000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1148667</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1136000</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -12346,20 +11500,14 @@
       <c r="C25" t="n">
         <v>2</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$2,495,000</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$1,247,500</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$1,247,500</t>
-        </is>
+      <c r="D25" t="n">
+        <v>2495000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1247500</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1247500</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -12390,20 +11538,14 @@
       <c r="C26" t="n">
         <v>3</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$2,960,000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$986,667</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$1,030,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>2960000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>986667</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1030000</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -12434,20 +11576,14 @@
       <c r="C27" t="n">
         <v>3</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$3,133,900</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$1,044,633</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$1,050,000</t>
-        </is>
+      <c r="D27" t="n">
+        <v>3133900</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1044633</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1050000</v>
       </c>
       <c r="G27" t="n">
         <v>4</v>
@@ -12478,20 +11614,14 @@
       <c r="C28" t="n">
         <v>3</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$3,112,000</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$1,037,333</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$1,011,000</t>
-        </is>
+      <c r="D28" t="n">
+        <v>3112000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1037333</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1011000</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
@@ -12522,20 +11652,14 @@
       <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$1,050,000</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$1,050,000</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$1,050,000</t>
-        </is>
+      <c r="D29" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1050000</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -12566,20 +11690,14 @@
       <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$1,020,000</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$1,020,000</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$1,020,000</t>
-        </is>
+      <c r="D30" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1020000</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -12610,20 +11728,14 @@
       <c r="C31" t="n">
         <v>2</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$1,845,000</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$922,500</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$922,500</t>
-        </is>
+      <c r="D31" t="n">
+        <v>1845000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>922500</v>
+      </c>
+      <c r="F31" t="n">
+        <v>922500</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -12654,20 +11766,14 @@
       <c r="C32" t="n">
         <v>6</v>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$5,410,500</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$901,750</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$908,500</t>
-        </is>
+      <c r="D32" t="n">
+        <v>5410500</v>
+      </c>
+      <c r="E32" t="n">
+        <v>901750</v>
+      </c>
+      <c r="F32" t="n">
+        <v>908500</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
@@ -12718,17 +11824,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -12764,20 +11870,14 @@
       <c r="C2" t="n">
         <v>527</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$428,469,923</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$813,036</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$773,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>428469923</v>
+      </c>
+      <c r="E2" t="n">
+        <v>813036</v>
+      </c>
+      <c r="F2" t="n">
+        <v>773000</v>
       </c>
       <c r="G2" t="n">
         <v>842</v>
@@ -12808,20 +11908,14 @@
       <c r="C3" t="n">
         <v>154</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$129,648,230</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$841,872</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$790,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>129648230</v>
+      </c>
+      <c r="E3" t="n">
+        <v>841872</v>
+      </c>
+      <c r="F3" t="n">
+        <v>790000</v>
       </c>
       <c r="G3" t="n">
         <v>285</v>
@@ -12852,20 +11946,14 @@
       <c r="C4" t="n">
         <v>54</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$40,954,100</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$758,409</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$730,400</t>
-        </is>
+      <c r="D4" t="n">
+        <v>40954100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>758409</v>
+      </c>
+      <c r="F4" t="n">
+        <v>730400</v>
       </c>
       <c r="G4" t="n">
         <v>99</v>
@@ -12896,20 +11984,14 @@
       <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$4,351,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$870,200</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$775,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>4351000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>870200</v>
+      </c>
+      <c r="F5" t="n">
+        <v>775000</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -12940,20 +12022,14 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$3,625,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$906,250</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$897,500</t>
-        </is>
+      <c r="D6" t="n">
+        <v>3625000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>906250</v>
+      </c>
+      <c r="F6" t="n">
+        <v>897500</v>
       </c>
       <c r="G6" t="n">
         <v>7</v>
@@ -12984,20 +12060,14 @@
       <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$6,718,900</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$746,544</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$695,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>6718900</v>
+      </c>
+      <c r="E7" t="n">
+        <v>746544</v>
+      </c>
+      <c r="F7" t="n">
+        <v>695000</v>
       </c>
       <c r="G7" t="n">
         <v>15</v>
@@ -13028,20 +12098,14 @@
       <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$8,938,800</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$638,486</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$660,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>8938800</v>
+      </c>
+      <c r="E8" t="n">
+        <v>638486</v>
+      </c>
+      <c r="F8" t="n">
+        <v>660000</v>
       </c>
       <c r="G8" t="n">
         <v>23</v>
@@ -13072,20 +12136,14 @@
       <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$8,636,000</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$863,600</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$872,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>8636000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>863600</v>
+      </c>
+      <c r="F9" t="n">
+        <v>872000</v>
       </c>
       <c r="G9" t="n">
         <v>18</v>
@@ -13116,20 +12174,14 @@
       <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$6,276,400</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$784,550</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$695,000</t>
-        </is>
+      <c r="D10" t="n">
+        <v>6276400</v>
+      </c>
+      <c r="E10" t="n">
+        <v>784550</v>
+      </c>
+      <c r="F10" t="n">
+        <v>695000</v>
       </c>
       <c r="G10" t="n">
         <v>17</v>
@@ -13160,20 +12212,14 @@
       <c r="C11" t="n">
         <v>4</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$2,408,000</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$602,000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$602,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>2408000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>602000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>602000</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
@@ -13204,20 +12250,14 @@
       <c r="C12" t="n">
         <v>54</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$54,322,300</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$1,005,969</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$944,500</t>
-        </is>
+      <c r="D12" t="n">
+        <v>54322300</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1005969</v>
+      </c>
+      <c r="F12" t="n">
+        <v>944500</v>
       </c>
       <c r="G12" t="n">
         <v>107</v>
@@ -13248,20 +12288,14 @@
       <c r="C13" t="n">
         <v>13</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$11,577,000</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$890,538</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$795,000</t>
-        </is>
+      <c r="D13" t="n">
+        <v>11577000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>890538</v>
+      </c>
+      <c r="F13" t="n">
+        <v>795000</v>
       </c>
       <c r="G13" t="n">
         <v>17</v>
@@ -13292,20 +12326,14 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$3,425,000</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$1,712,500</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$1,712,500</t>
-        </is>
+      <c r="D14" t="n">
+        <v>3425000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1712500</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1712500</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -13336,20 +12364,14 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$1,521,000</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$760,500</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$760,500</t>
-        </is>
+      <c r="D15" t="n">
+        <v>1521000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>760500</v>
+      </c>
+      <c r="F15" t="n">
+        <v>760500</v>
       </c>
       <c r="G15" t="n">
         <v>11</v>
@@ -13380,20 +12402,14 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$1,835,000</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$917,500</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$917,500</t>
-        </is>
+      <c r="D16" t="n">
+        <v>1835000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>917500</v>
+      </c>
+      <c r="F16" t="n">
+        <v>917500</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -13424,20 +12440,14 @@
       <c r="C17" t="n">
         <v>5</v>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$6,293,000</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,258,600</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,235,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>6293000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1258600</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1235000</v>
       </c>
       <c r="G17" t="n">
         <v>12</v>
@@ -13468,20 +12478,14 @@
       <c r="C18" t="n">
         <v>5</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$4,728,000</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$945,600</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$915,000</t>
-        </is>
+      <c r="D18" t="n">
+        <v>4728000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>945600</v>
+      </c>
+      <c r="F18" t="n">
+        <v>915000</v>
       </c>
       <c r="G18" t="n">
         <v>9</v>
@@ -13512,20 +12516,14 @@
       <c r="C19" t="n">
         <v>12</v>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$12,747,500</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$1,062,292</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$1,059,500</t>
-        </is>
+      <c r="D19" t="n">
+        <v>12747500</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1062292</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1059500</v>
       </c>
       <c r="G19" t="n">
         <v>15</v>
@@ -13556,20 +12554,14 @@
       <c r="C20" t="n">
         <v>13</v>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$12,195,800</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$938,138</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$900,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>12195800</v>
+      </c>
+      <c r="E20" t="n">
+        <v>938138</v>
+      </c>
+      <c r="F20" t="n">
+        <v>900000</v>
       </c>
       <c r="G20" t="n">
         <v>19</v>
@@ -13600,20 +12592,14 @@
       <c r="C21" t="n">
         <v>46</v>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$34,371,830</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$747,214</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$752,500</t>
-        </is>
+      <c r="D21" t="n">
+        <v>34371830</v>
+      </c>
+      <c r="E21" t="n">
+        <v>747214</v>
+      </c>
+      <c r="F21" t="n">
+        <v>752500</v>
       </c>
       <c r="G21" t="n">
         <v>79</v>
@@ -13644,20 +12630,14 @@
       <c r="C22" t="n">
         <v>2</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$2,177,880</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$1,088,940</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$1,088,940</t>
-        </is>
+      <c r="D22" t="n">
+        <v>2177880</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1088940</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1088940</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -13688,20 +12668,14 @@
       <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$710,000</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$710,000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$710,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>710000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>710000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>710000</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -13732,20 +12706,14 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$840,000</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$840,000</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$840,000</t>
-        </is>
+      <c r="D24" t="n">
+        <v>840000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>840000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>840000</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -13776,20 +12744,14 @@
       <c r="C25" t="n">
         <v>4</v>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$2,827,900</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$706,975</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$740,000</t>
-        </is>
+      <c r="D25" t="n">
+        <v>2827900</v>
+      </c>
+      <c r="E25" t="n">
+        <v>706975</v>
+      </c>
+      <c r="F25" t="n">
+        <v>740000</v>
       </c>
       <c r="G25" t="n">
         <v>10</v>
@@ -13820,20 +12782,14 @@
       <c r="C26" t="n">
         <v>13</v>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$9,967,688</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$766,745</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>9967688</v>
+      </c>
+      <c r="E26" t="n">
+        <v>766745</v>
+      </c>
+      <c r="F26" t="n">
+        <v>780000</v>
       </c>
       <c r="G26" t="n">
         <v>15</v>
@@ -13864,20 +12820,14 @@
       <c r="C27" t="n">
         <v>4</v>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$3,479,688</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$869,922</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$878,400</t>
-        </is>
+      <c r="D27" t="n">
+        <v>3479688</v>
+      </c>
+      <c r="E27" t="n">
+        <v>869922</v>
+      </c>
+      <c r="F27" t="n">
+        <v>878400</v>
       </c>
       <c r="G27" t="n">
         <v>10</v>
@@ -13908,20 +12858,14 @@
       <c r="C28" t="n">
         <v>1</v>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$885,000</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$885,000</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$885,000</t>
-        </is>
+      <c r="D28" t="n">
+        <v>885000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>885000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>885000</v>
       </c>
       <c r="G28" t="n">
         <v>8</v>
@@ -13952,20 +12896,14 @@
       <c r="C29" t="n">
         <v>6</v>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$3,779,000</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$629,833</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$615,500</t>
-        </is>
+      <c r="D29" t="n">
+        <v>3779000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>629833</v>
+      </c>
+      <c r="F29" t="n">
+        <v>615500</v>
       </c>
       <c r="G29" t="n">
         <v>4</v>
@@ -13996,20 +12934,14 @@
       <c r="C30" t="n">
         <v>4</v>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$2,532,000</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$633,000</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$617,500</t>
-        </is>
+      <c r="D30" t="n">
+        <v>2532000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>633000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>617500</v>
       </c>
       <c r="G30" t="n">
         <v>8</v>
@@ -14040,20 +12972,14 @@
       <c r="C31" t="n">
         <v>10</v>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$7,172,674</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$717,267</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$742,500</t>
-        </is>
+      <c r="D31" t="n">
+        <v>7172674</v>
+      </c>
+      <c r="E31" t="n">
+        <v>717267</v>
+      </c>
+      <c r="F31" t="n">
+        <v>742500</v>
       </c>
       <c r="G31" t="n">
         <v>17</v>
@@ -14104,17 +13030,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -14152,20 +13078,14 @@
           <t>2,121</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$1,492,263,353</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$703,566</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$638,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1492263353</v>
+      </c>
+      <c r="E2" t="n">
+        <v>703566</v>
+      </c>
+      <c r="F2" t="n">
+        <v>638000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -14200,20 +13120,14 @@
           <t>1,410</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$1,033,451,717</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$732,944</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$655,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>1033451717</v>
+      </c>
+      <c r="E3" t="n">
+        <v>732944</v>
+      </c>
+      <c r="F3" t="n">
+        <v>655000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -14248,20 +13162,14 @@
           <t>275</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$178,828,739</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$650,286</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$610,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>178828739</v>
+      </c>
+      <c r="E4" t="n">
+        <v>650286</v>
+      </c>
+      <c r="F4" t="n">
+        <v>610000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -14296,20 +13204,14 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$12,399,400</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$774,963</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$780,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>12399400</v>
+      </c>
+      <c r="E5" t="n">
+        <v>774963</v>
+      </c>
+      <c r="F5" t="n">
+        <v>780000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -14344,20 +13246,14 @@
           <t>19</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$13,935,250</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$733,434</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$705,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>13935250</v>
+      </c>
+      <c r="E6" t="n">
+        <v>733434</v>
+      </c>
+      <c r="F6" t="n">
+        <v>705000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -14392,20 +13288,14 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$1,660,000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$553,333</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$500,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>1660000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>553333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>500000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -14440,20 +13330,14 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$12,447,800</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$565,809</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$577,500</t>
-        </is>
+      <c r="D8" t="n">
+        <v>12447800</v>
+      </c>
+      <c r="E8" t="n">
+        <v>565809</v>
+      </c>
+      <c r="F8" t="n">
+        <v>577500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -14488,20 +13372,14 @@
           <t>30</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$15,254,800</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$508,493</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$527,500</t>
-        </is>
+      <c r="D9" t="n">
+        <v>15254800</v>
+      </c>
+      <c r="E9" t="n">
+        <v>508493</v>
+      </c>
+      <c r="F9" t="n">
+        <v>527500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -14536,20 +13414,14 @@
           <t>73</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$54,891,277</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$751,935</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$699,900</t>
-        </is>
+      <c r="D10" t="n">
+        <v>54891277</v>
+      </c>
+      <c r="E10" t="n">
+        <v>751935</v>
+      </c>
+      <c r="F10" t="n">
+        <v>699900</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -14584,20 +13456,14 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>$3,225,000</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>$645,000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>$673,000</t>
-        </is>
+      <c r="D11" t="n">
+        <v>3225000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>645000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>673000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -14632,20 +13498,14 @@
           <t>76</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>$48,288,512</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>$635,375</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>$605,000</t>
-        </is>
+      <c r="D12" t="n">
+        <v>48288512</v>
+      </c>
+      <c r="E12" t="n">
+        <v>635375</v>
+      </c>
+      <c r="F12" t="n">
+        <v>605000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -14680,20 +13540,14 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>$6,681,100</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>$556,758</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>$557,500</t>
-        </is>
+      <c r="D13" t="n">
+        <v>6681100</v>
+      </c>
+      <c r="E13" t="n">
+        <v>556758</v>
+      </c>
+      <c r="F13" t="n">
+        <v>557500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -14728,20 +13582,14 @@
           <t>19</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>$10,045,600</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>$528,716</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>$525,000</t>
-        </is>
+      <c r="D14" t="n">
+        <v>10045600</v>
+      </c>
+      <c r="E14" t="n">
+        <v>528716</v>
+      </c>
+      <c r="F14" t="n">
+        <v>525000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -14776,20 +13624,14 @@
           <t>926</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>$728,479,103</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>$786,694</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>$698,750</t>
-        </is>
+      <c r="D15" t="n">
+        <v>728479103</v>
+      </c>
+      <c r="E15" t="n">
+        <v>786694</v>
+      </c>
+      <c r="F15" t="n">
+        <v>698750</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -14824,20 +13666,14 @@
           <t>339</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>$263,650,169</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>$777,729</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>$712,000</t>
-        </is>
+      <c r="D16" t="n">
+        <v>263650169</v>
+      </c>
+      <c r="E16" t="n">
+        <v>777729</v>
+      </c>
+      <c r="F16" t="n">
+        <v>712000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -14872,20 +13708,14 @@
           <t>39</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>$49,330,800</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>$1,264,892</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
+      <c r="D17" t="n">
+        <v>49330800</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1264892</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1000000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -14920,20 +13750,14 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>$9,704,008</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>$693,143</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>$737,450</t>
-        </is>
+      <c r="D18" t="n">
+        <v>9704008</v>
+      </c>
+      <c r="E18" t="n">
+        <v>693143</v>
+      </c>
+      <c r="F18" t="n">
+        <v>737450</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -14968,20 +13792,14 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>$11,234,000</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>$1,123,400</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>$952,500</t>
-        </is>
+      <c r="D19" t="n">
+        <v>11234000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1123400</v>
+      </c>
+      <c r="F19" t="n">
+        <v>952500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -15016,20 +13834,14 @@
           <t>15</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>$8,989,900</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>$599,327</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>$570,000</t>
-        </is>
+      <c r="D20" t="n">
+        <v>8989900</v>
+      </c>
+      <c r="E20" t="n">
+        <v>599327</v>
+      </c>
+      <c r="F20" t="n">
+        <v>570000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -15064,20 +13876,14 @@
           <t>54</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>$37,860,838</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>$701,127</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>$672,275</t>
-        </is>
+      <c r="D21" t="n">
+        <v>37860838</v>
+      </c>
+      <c r="E21" t="n">
+        <v>701127</v>
+      </c>
+      <c r="F21" t="n">
+        <v>672275</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -15112,20 +13918,14 @@
           <t>182</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>$140,637,028</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>$772,731</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>$694,250</t>
-        </is>
+      <c r="D22" t="n">
+        <v>140637028</v>
+      </c>
+      <c r="E22" t="n">
+        <v>772731</v>
+      </c>
+      <c r="F22" t="n">
+        <v>694250</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -15160,20 +13960,14 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>$13,440,000</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>$1,120,000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>$950,000</t>
-        </is>
+      <c r="D23" t="n">
+        <v>13440000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1120000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>950000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -15208,20 +14002,14 @@
           <t>55</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>$43,643,398</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>$793,516</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>$708,000</t>
-        </is>
+      <c r="D24" t="n">
+        <v>43643398</v>
+      </c>
+      <c r="E24" t="n">
+        <v>793516</v>
+      </c>
+      <c r="F24" t="n">
+        <v>708000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -15256,20 +14044,14 @@
           <t>17</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>$10,241,000</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>$602,412</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>$538,000</t>
-        </is>
+      <c r="D25" t="n">
+        <v>10241000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>602412</v>
+      </c>
+      <c r="F25" t="n">
+        <v>538000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -15304,20 +14086,14 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>$8,856,000</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>$1,771,200</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>$1,151,000</t>
-        </is>
+      <c r="D26" t="n">
+        <v>8856000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1771200</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1151000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -15352,20 +14128,14 @@
           <t>34</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>$24,363,007</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>$716,559</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>$661,500</t>
-        </is>
+      <c r="D27" t="n">
+        <v>24363007</v>
+      </c>
+      <c r="E27" t="n">
+        <v>716559</v>
+      </c>
+      <c r="F27" t="n">
+        <v>661500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -15400,20 +14170,14 @@
           <t>79</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>$55,983,948</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>$708,658</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>$679,000</t>
-        </is>
+      <c r="D28" t="n">
+        <v>55983948</v>
+      </c>
+      <c r="E28" t="n">
+        <v>708658</v>
+      </c>
+      <c r="F28" t="n">
+        <v>679000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -15448,20 +14212,14 @@
           <t>71</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>$50,545,007</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>$711,902</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>$668,000</t>
-        </is>
+      <c r="D29" t="n">
+        <v>50545007</v>
+      </c>
+      <c r="E29" t="n">
+        <v>711902</v>
+      </c>
+      <c r="F29" t="n">
+        <v>668000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -15496,20 +14254,14 @@
           <t>209</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>$126,143,875</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>$603,559</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>$562,000</t>
-        </is>
+      <c r="D30" t="n">
+        <v>126143875</v>
+      </c>
+      <c r="E30" t="n">
+        <v>603559</v>
+      </c>
+      <c r="F30" t="n">
+        <v>562000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -15544,20 +14296,14 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>$15,208,899</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>$760,445</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>$773,750</t>
-        </is>
+      <c r="D31" t="n">
+        <v>15208899</v>
+      </c>
+      <c r="E31" t="n">
+        <v>760445</v>
+      </c>
+      <c r="F31" t="n">
+        <v>773750</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -15592,20 +14338,14 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>$9,888,000</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>$898,909</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>$775,000</t>
-        </is>
+      <c r="D32" t="n">
+        <v>9888000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>898909</v>
+      </c>
+      <c r="F32" t="n">
+        <v>775000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -15640,20 +14380,14 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>$6,639,500</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>$603,591</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>$540,000</t>
-        </is>
+      <c r="D33" t="n">
+        <v>6639500</v>
+      </c>
+      <c r="E33" t="n">
+        <v>603591</v>
+      </c>
+      <c r="F33" t="n">
+        <v>540000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -15688,20 +14422,14 @@
           <t>28</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>$14,956,500</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>$534,161</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>$535,500</t>
-        </is>
+      <c r="D34" t="n">
+        <v>14956500</v>
+      </c>
+      <c r="E34" t="n">
+        <v>534161</v>
+      </c>
+      <c r="F34" t="n">
+        <v>535500</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -15736,20 +14464,14 @@
           <t>29</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>$17,944,800</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>$618,786</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>$615,000</t>
-        </is>
+      <c r="D35" t="n">
+        <v>17944800</v>
+      </c>
+      <c r="E35" t="n">
+        <v>618786</v>
+      </c>
+      <c r="F35" t="n">
+        <v>615000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -15784,20 +14506,14 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>$3,362,000</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>$672,400</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>$645,000</t>
-        </is>
+      <c r="D36" t="n">
+        <v>3362000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>672400</v>
+      </c>
+      <c r="F36" t="n">
+        <v>645000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -15832,20 +14548,14 @@
           <t>30</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>$17,020,900</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>$567,363</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>$566,000</t>
-        </is>
+      <c r="D37" t="n">
+        <v>17020900</v>
+      </c>
+      <c r="E37" t="n">
+        <v>567363</v>
+      </c>
+      <c r="F37" t="n">
+        <v>566000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -15880,20 +14590,14 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>$11,433,700</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>$544,462</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>$520,000</t>
-        </is>
+      <c r="D38" t="n">
+        <v>11433700</v>
+      </c>
+      <c r="E38" t="n">
+        <v>544462</v>
+      </c>
+      <c r="F38" t="n">
+        <v>520000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -15928,20 +14632,14 @@
           <t>35</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>$20,221,788</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>$577,765</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>$560,000</t>
-        </is>
+      <c r="D39" t="n">
+        <v>20221788</v>
+      </c>
+      <c r="E39" t="n">
+        <v>577765</v>
+      </c>
+      <c r="F39" t="n">
+        <v>560000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -15976,20 +14674,14 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>$3,562,900</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>$445,363</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>$425,000</t>
-        </is>
+      <c r="D40" t="n">
+        <v>3562900</v>
+      </c>
+      <c r="E40" t="n">
+        <v>445363</v>
+      </c>
+      <c r="F40" t="n">
+        <v>425000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -16024,20 +14716,14 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>$5,904,888</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>$536,808</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>$535,000</t>
-        </is>
+      <c r="D41" t="n">
+        <v>5904888</v>
+      </c>
+      <c r="E41" t="n">
+        <v>536808</v>
+      </c>
+      <c r="F41" t="n">
+        <v>535000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -16090,17 +14776,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -16136,20 +14822,14 @@
       <c r="C2" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$38,105,853</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$1,120,760</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$1,070,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>38105853</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1120760</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1070000</v>
       </c>
       <c r="G2" t="n">
         <v>39</v>
@@ -16180,20 +14860,14 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$4,670,000</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$1,167,500</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$1,165,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>4670000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1167500</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1165000</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -16224,20 +14898,14 @@
       <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$3,670,000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$1,223,333</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$1,280,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>3670000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1223333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1280000</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -16268,20 +14936,14 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$1,050,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$1,050,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$1,050,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1050000</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -16312,20 +14974,14 @@
       <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$2,620,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$1,310,000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$1,310,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>2620000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1310000</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -16356,20 +15012,14 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000000</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -16400,20 +15050,14 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$1,000,000</t>
-        </is>
+      <c r="D8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1000000</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -16464,17 +15108,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -16510,20 +15154,14 @@
       <c r="C2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$3,430,500</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$428,813</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$350,000</t>
-        </is>
+      <c r="D2" t="n">
+        <v>3430500</v>
+      </c>
+      <c r="E2" t="n">
+        <v>428813</v>
+      </c>
+      <c r="F2" t="n">
+        <v>350000</v>
       </c>
       <c r="G2" t="n">
         <v>20</v>
@@ -16554,20 +15192,14 @@
       <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>$2,790,500</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$398,643</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$340,000</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2790500</v>
+      </c>
+      <c r="E3" t="n">
+        <v>398643</v>
+      </c>
+      <c r="F3" t="n">
+        <v>340000</v>
       </c>
       <c r="G3" t="n">
         <v>14</v>
@@ -16598,20 +15230,14 @@
       <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$1,728,000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$345,600</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$340,000</t>
-        </is>
+      <c r="D4" t="n">
+        <v>1728000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>345600</v>
+      </c>
+      <c r="F4" t="n">
+        <v>340000</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -16642,20 +15268,14 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>$300,000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$300,000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$300,000</t>
-        </is>
+      <c r="D5" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>300000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>300000</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -16686,20 +15306,14 @@
       <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>$1,008,000</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$336,000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$340,000</t>
-        </is>
+      <c r="D6" t="n">
+        <v>1008000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>336000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>340000</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
@@ -16730,20 +15344,14 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$420,000</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>$420,000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>$420,000</t>
-        </is>
+      <c r="D7" t="n">
+        <v>420000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>420000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>420000</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -16774,20 +15382,14 @@
       <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>$1,062,500</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>$531,250</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>$531,250</t>
-        </is>
+      <c r="D8" t="n">
+        <v>1062500</v>
+      </c>
+      <c r="E8" t="n">
+        <v>531250</v>
+      </c>
+      <c r="F8" t="n">
+        <v>531250</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
@@ -16818,20 +15420,14 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>$790,000</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>$790,000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>$790,000</t>
-        </is>
+      <c r="D9" t="n">
+        <v>790000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>790000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>790000</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -16862,20 +15458,14 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>$272,500</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>$272,500</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>$272,500</t>
-        </is>
+      <c r="D10" t="n">
+        <v>272500</v>
+      </c>
+      <c r="E10" t="n">
+        <v>272500</v>
+      </c>
+      <c r="F10" t="n">
+        <v>272500</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -16926,17 +15516,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Dollar Volume</t>
+          <t>Dollar Volume ($)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Average Price</t>
+          <t>Average Price ($)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Median Price</t>
+          <t>Median Price ($)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -16972,20 +15562,14 @@
       <c r="C2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$7,611,450</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$951,431</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>$952,500</t>
-        </is>
+      <c r="D2" t="n">
+        <v>7611450</v>
+      </c>
+      <c r="E2" t="n">
+        <v>951431</v>
+      </c>
+      <c r="F2" t="n">
+        <v>952500</v>
       </c>
       <c r="G2" t="n">
         <v>15</v>
